--- a/video_games/video_games.xlsx
+++ b/video_games/video_games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44739\Desktop\The World Blueprint\fact vs fiction\video_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245DF5C-1431-4F9C-B7F6-52D194CDD39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066B0CE-6D59-4CE7-B0EC-246E020CD2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC8EF966-1A08-4E05-A262-6FD8005B1731}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>Fiction! That was just a rumor; no Mew is there.</t>
   </si>
   <si>
-    <t>Fact! The series was renamed EA Sports FC after 2022.</t>
-  </si>
-  <si>
     <t>Elden Ring features an NPC that can betray players.</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Fiction3</t>
+  </si>
+  <si>
+    <t>Fact! The series was renamed EA Sports FC after 2023.</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE15E8-303E-4237-A1ED-3CA08FA56CCA}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,28 +1082,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -1125,11 +1125,11 @@
         <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1199,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1241,14 +1241,14 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>73</v>
@@ -1267,7 +1267,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>80</v>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1319,10 +1319,10 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1333,11 +1333,11 @@
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>52</v>
@@ -1397,7 +1397,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
@@ -1411,7 +1411,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>61</v>
@@ -1423,7 +1423,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
@@ -1449,25 +1449,25 @@
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1475,25 +1475,25 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1501,51 +1501,51 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1553,25 +1553,25 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1579,25 +1579,25 @@
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1605,25 +1605,25 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1631,24 +1631,24 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1657,25 +1657,25 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1683,76 +1683,76 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1761,25 +1761,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1787,77 +1787,77 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
